--- a/biology/Botanique/Tanakea/Tanakea.xlsx
+++ b/biology/Botanique/Tanakea/Tanakea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanakaea radicans, ou Tanakea radicans, est une espèce de plantes, la seule du genre monotypique Tanakaea, ou Tanakea, de la famille des Saxifragaceae et que l'on trouve en Extrême-Orient.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanakea radicans est une plante vivace couvre-sol dont la tige peut atteindre 6,5 à 12,5 cm de hauteur. Ses rhizomes allongés de manière transversale mesurent 2 mm de diamètre. Ses feuilles persistentes duveteuses possèdent un pétiole de 1,5 à 6,6 cm. Elles sont d'un vert brillant et de forme ovale ou elliptique mesurant de 0,8 à 2,9 cm de longueur et de 1 à 1,3 cm de largeur.
-Ses inflorescences de 3,5 cm environ[2] sont formées de petites fleurs blanchâtres dont les sépales sont de forme étroitement ovale à lancéolée (1,6 mm × 0,6 mm), glabres et pointus.
+Ses inflorescences de 3,5 cm environ sont formées de petites fleurs blanchâtres dont les sépales sont de forme étroitement ovale à lancéolée (1,6 mm × 0,6 mm), glabres et pointus.
 Le fruit est une petite capsule de 4 mm.
 Tanakaea radicans fleurit d'avril à octobre dans son environnement d'origine. C'est une plante idéale en rocaille.
 </t>
@@ -545,7 +559,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanakaea se rencontre en Chine au sud du Sichuan et au Japon dans des zones rocheuses humifères et ombragées.
 </t>
@@ -576,10 +592,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tanakaea radicans a été décrite par Franchet et Savatier dans leur ouvrage Enumeratio Plantarum in Japonia Sponte Crescentium ..., 2(2): 352, publié en 1878. L'espèce est dédiée au botaniste japonais Yoshio Tanaka (1838-1916).
-Synonymes[3] :
+Synonymes :
 Tanakaea omeiensis Nakai
 Tanakaea omeiensis var. nanchuanensis W.T. Wang</t>
         </is>
